--- a/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B516CD2-7DBC-47EB-952B-9DEE31E53484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C64FFE-909A-44B0-9DF0-F10D3B9D0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{508BB0DC-B34D-43F6-A2C2-A0D4FFB358B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33DC396F-B962-4F70-852C-CE00C74C06A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población según el número de raciones de mantequilla, margarina o nata que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,5%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>25,86%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>72,47%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>24,39%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>75,07%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,166 +308,160 @@
     <t>24,01%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>71,06%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC44B09-FEC9-4510-AE8D-DA75FBF6A0A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C2715D-836B-4D22-A7D7-09C9418C7A28}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1626,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>228</v>
@@ -1641,13 +1635,13 @@
         <v>146365</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -1656,13 +1650,13 @@
         <v>289227</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>452041</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>772</v>
@@ -1692,13 +1686,13 @@
         <v>449860</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1279</v>
@@ -1707,13 +1701,13 @@
         <v>901901</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>169602</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>364</v>
@@ -1796,13 +1790,13 @@
         <v>327765</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -1811,13 +1805,13 @@
         <v>497367</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>524572</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1340</v>
@@ -1847,13 +1841,13 @@
         <v>696655</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2128</v>
@@ -1862,13 +1856,13 @@
         <v>1221227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1930,13 @@
         <v>812886</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1214</v>
@@ -1951,13 +1945,13 @@
         <v>1029054</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2002</v>
@@ -1966,13 +1960,13 @@
         <v>1841939</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2556947</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4139</v>
@@ -2002,13 +1996,13 @@
         <v>2773454</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6711</v>
@@ -2017,13 +2011,13 @@
         <v>5330402</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C64FFE-909A-44B0-9DF0-F10D3B9D0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74700FC7-81C0-4A08-9F0A-25A07256B103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33DC396F-B962-4F70-852C-CE00C74C06A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE9FB8A5-0027-450D-8022-08F3BB0812F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="156">
   <si>
     <t>Población según el número de raciones de mantequilla, margarina o nata que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,403 +65,442 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Una o más al día</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C2715D-836B-4D22-A7D7-09C9418C7A28}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB81F0-DDFF-460B-9946-1ED7DCC0547D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>103863</v>
+        <v>96417</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1051,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>94341</v>
+        <v>77343</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1066,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="7">
-        <v>198204</v>
+        <v>173760</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1087,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>273816</v>
+        <v>303570</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1102,7 @@
         <v>150</v>
       </c>
       <c r="I5" s="7">
-        <v>260616</v>
+        <v>235857</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1117,7 @@
         <v>273</v>
       </c>
       <c r="N5" s="7">
-        <v>534432</v>
+        <v>539427</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1138,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1153,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1168,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1191,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>110397</v>
+        <v>102031</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1206,7 @@
         <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>144410</v>
+        <v>181037</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1221,7 @@
         <v>195</v>
       </c>
       <c r="N7" s="7">
-        <v>254807</v>
+        <v>283068</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1242,7 @@
         <v>223</v>
       </c>
       <c r="D8" s="7">
-        <v>316449</v>
+        <v>320155</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1257,7 @@
         <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>354167</v>
+        <v>330467</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1272,7 @@
         <v>566</v>
       </c>
       <c r="N8" s="7">
-        <v>670616</v>
+        <v>650622</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1293,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>426846</v>
+        <v>422186</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1308,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1323,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925423</v>
+        <v>933690</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1346,7 @@
         <v>132</v>
       </c>
       <c r="D10" s="7">
-        <v>135224</v>
+        <v>123808</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1361,7 @@
         <v>201</v>
       </c>
       <c r="I10" s="7">
-        <v>148256</v>
+        <v>133369</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1376,7 @@
         <v>333</v>
       </c>
       <c r="N10" s="7">
-        <v>283481</v>
+        <v>257177</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1397,7 @@
         <v>411</v>
       </c>
       <c r="D11" s="7">
-        <v>419281</v>
+        <v>409945</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1412,7 @@
         <v>643</v>
       </c>
       <c r="I11" s="7">
-        <v>434366</v>
+        <v>408280</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1427,7 @@
         <v>1054</v>
       </c>
       <c r="N11" s="7">
-        <v>853647</v>
+        <v>818225</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1448,7 @@
         <v>543</v>
       </c>
       <c r="D12" s="7">
-        <v>554505</v>
+        <v>533753</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1463,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>582622</v>
+        <v>541649</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1478,7 @@
         <v>1387</v>
       </c>
       <c r="N12" s="7">
-        <v>1137128</v>
+        <v>1075402</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1501,7 @@
         <v>143</v>
       </c>
       <c r="D13" s="7">
-        <v>150937</v>
+        <v>138878</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,7 +1516,7 @@
         <v>247</v>
       </c>
       <c r="I13" s="7">
-        <v>167917</v>
+        <v>150179</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1492,7 +1531,7 @@
         <v>390</v>
       </c>
       <c r="N13" s="7">
-        <v>318854</v>
+        <v>289057</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1513,7 +1552,7 @@
         <v>520</v>
       </c>
       <c r="D14" s="7">
-        <v>570789</v>
+        <v>746660</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1528,7 +1567,7 @@
         <v>891</v>
       </c>
       <c r="I14" s="7">
-        <v>577790</v>
+        <v>561255</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1543,7 +1582,7 @@
         <v>1411</v>
       </c>
       <c r="N14" s="7">
-        <v>1148579</v>
+        <v>1307915</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1564,7 +1603,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721726</v>
+        <v>885538</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1618,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745707</v>
+        <v>711434</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1633,7 @@
         <v>1801</v>
       </c>
       <c r="N15" s="7">
-        <v>1467433</v>
+        <v>1596972</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1656,7 @@
         <v>151</v>
       </c>
       <c r="D16" s="7">
-        <v>142862</v>
+        <v>127685</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1626,19 +1665,19 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>228</v>
       </c>
       <c r="I16" s="7">
-        <v>146365</v>
+        <v>129698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
@@ -1647,7 +1686,7 @@
         <v>379</v>
       </c>
       <c r="N16" s="7">
-        <v>289227</v>
+        <v>257383</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1668,37 +1707,37 @@
         <v>507</v>
       </c>
       <c r="D17" s="7">
-        <v>452041</v>
+        <v>428663</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>772</v>
       </c>
       <c r="I17" s="7">
-        <v>449860</v>
+        <v>417418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1279</v>
       </c>
       <c r="N17" s="7">
-        <v>901901</v>
+        <v>846081</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1719,7 +1758,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>594903</v>
+        <v>556348</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1773,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>596225</v>
+        <v>547116</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1788,7 @@
         <v>1658</v>
       </c>
       <c r="N18" s="7">
-        <v>1191128</v>
+        <v>1103464</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1808,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="D19" s="7">
-        <v>169602</v>
+        <v>85611</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -1784,10 +1823,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="I19" s="7">
-        <v>327765</v>
+        <v>302333</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -1799,10 +1838,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>599</v>
+        <v>326</v>
       </c>
       <c r="N19" s="7">
-        <v>497367</v>
+        <v>387944</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -1820,10 +1859,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>788</v>
+        <v>433</v>
       </c>
       <c r="D20" s="7">
-        <v>524572</v>
+        <v>279600</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1835,10 +1874,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>1340</v>
+        <v>633</v>
       </c>
       <c r="I20" s="7">
-        <v>696655</v>
+        <v>305473</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -1850,10 +1889,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>2128</v>
+        <v>1066</v>
       </c>
       <c r="N20" s="7">
-        <v>1221227</v>
+        <v>585073</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1871,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1023</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>694174</v>
+        <v>365211</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024420</v>
+        <v>607806</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2727</v>
+        <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1718594</v>
+        <v>973017</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,19 +1957,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>788</v>
+        <v>102</v>
       </c>
       <c r="D22" s="7">
-        <v>812886</v>
+        <v>66176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>125</v>
@@ -1939,10 +1978,10 @@
         <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>1214</v>
+        <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>1029054</v>
+        <v>92046</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>127</v>
@@ -1954,10 +1993,10 @@
         <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>2002</v>
+        <v>273</v>
       </c>
       <c r="N22" s="7">
-        <v>1841939</v>
+        <v>158222</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>130</v>
@@ -1966,7 +2005,7 @@
         <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2014,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2572</v>
+        <v>355</v>
       </c>
       <c r="D23" s="7">
-        <v>2556947</v>
+        <v>216192</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>707</v>
+      </c>
+      <c r="I23" s="7">
+        <v>332308</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="7">
-        <v>4139</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2773454</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1062</v>
+      </c>
+      <c r="N23" s="7">
+        <v>548500</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6711</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5330402</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2065,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282368</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424354</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706722</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>788</v>
+      </c>
+      <c r="D25" s="7">
+        <v>740606</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1214</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1066004</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1806611</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2572</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2704784</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4139</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2591059</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6711</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5295842</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3360</v>
       </c>
-      <c r="D24" s="7">
-        <v>3369833</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3445390</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5353</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802508</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657063</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8713</v>
       </c>
-      <c r="N24" s="7">
-        <v>7172341</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7102453</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
